--- a/log/word2vec_sim_log.xlsx
+++ b/log/word2vec_sim_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,2271 @@
         <v>0.3166203553026373</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.23063390431079</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9460224644704298</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1405654952607372</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.345494189045646</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3713876144452529</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5383678485046733</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3089580833911896</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9999999880790711</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4133522719144821</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3386561125516891</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5375642150640487</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.328781059384346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.234195963293314</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9999999880790711</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1409059282392263</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3508964598178864</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3792353242635727</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5515799105167389</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3203525602817535</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3753649666905403</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3645782440900803</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7345994025468826</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5626596659421921</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4884136930108071</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3990949306637049</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3645782440900803</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2902254804968834</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7335085451602936</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3924483995884657</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6448407799005509</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6997548431158066</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3390449285507202</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3275706001690456</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.870272866317204</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5830404843602862</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5133622948612485</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4431351428585393</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3275706001690456</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.2432873036180224</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8458930424281529</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4662007540464401</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8126825945717948</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9133448089872088</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5066523725787798</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5066523725787798</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5624405741691589</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5011743729313215</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4828484865526358</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.3462007654209932</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5066523725787798</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1691353091349204</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5392648379007975</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.539430400977532</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.623113232354323</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4922449290752411</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2629611924290657</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.2629611924290657</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6923916876316071</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.6577035486698151</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6478339493274688</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6466704368591308</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.2629611924290657</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.2194302648305893</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.656047385931015</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.7001737713813782</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6809251964092254</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6577035486698151</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.2307700373232365</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.2307700373232365</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.5267914265394211</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.523371759057045</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.4833775252103806</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6470077157020568</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.2307700373232365</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.2197811841964722</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.523371759057045</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.4381356924772263</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.523371759057045</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.523371759057045</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9999999880790711</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9999999880790711</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4133522719144821</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.3386561125516891</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.5375642150640487</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.328781059384346</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.234195963293314</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1409059282392263</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.3508964598178864</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.3792353242635727</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.5515799105167389</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.3203525602817535</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1854036673903465</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1848991593079908</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.2868626309292657</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1980895953519004</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.2110038889305932</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.191744045487472</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.1428107778940882</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.1848991593079908</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.2331629650933402</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.1880135259457997</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.2031793658222471</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.2016124789203916</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.3490139856934548</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.3490139856934548</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.7200870484113693</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.7039717972278595</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.5610831320285797</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.4619420230388641</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.3862417742609978</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.3490139856934548</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.2413368359208107</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4199080735445023</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.6315742641687393</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.7412532702088356</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4026590466499329</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4026590466499329</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.6206990897655487</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5995362222194671</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.7172890663146972</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.7380527377128601</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.4467051029205322</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.4026590466499329</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.1886566162109375</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5922032952308655</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.7174043655395508</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5995362222194671</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4548863669236501</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.4508521474070019</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.628132732378112</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.6714471413029565</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.6613415016068352</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5091960761282179</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.4077987571557363</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.4508521474070019</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.2093774456944731</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.6121813919809129</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.4928901394208272</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.6300107058551576</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendirilebilir.</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.32523413002491</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.32523413002491</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>C kişisi marketten alışveriş yapmıştır ve kasada ödeme yapmadan çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.813939494746072</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmayı unutarak marketten çıkmıştır.</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9133448089872088</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>C kişisi hırsızdır ve hırsızlık suçu işlediği için bu durudman şüphe bile edilemez.</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.6011279438223157</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>C kişisi bir banka müdürü.</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.5227981188467571</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>C kişisinin mesleği banka müdürlüğüdür.</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4457260434116636</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>C'nin dikkat ve özen yükümlülüğüne aykırı davranmış olması nedeniyle kusurlu olduğu değerlendrilemez.</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.32523413002491</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Leclerc, 2021 Formula 1 sezonunda 3. sırayı aldı.</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.2432237224919455</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>C kişisi ödeme yapmadı sonra da marketten çıkarken ödemeyi unuttu.</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.8980814048222133</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>C kişisi kötü bir insan.</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.4757863645042692</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>C kişisi marketten çıkarken ödeme yapmayı unutmuştur.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Kusurlu olan C kişisi, ödeme yapmayı unuttuğunu iddia etmektedir.</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.7826485974448067</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
